--- a/admin_interface/initData/sejours.xlsx
+++ b/admin_interface/initData/sejours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA13988-9A4A-4434-9DBE-D771BFF854B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF94C1F-634F-42BA-8E0A-5C4DA3A51C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>animaux</t>
   </si>
   <si>
-    <t>proprietaire</t>
-  </si>
-  <si>
     <t>vaccination</t>
   </si>
   <si>
@@ -74,13 +71,61 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Champ technique, ne pas remplir</t>
+  </si>
+  <si>
+    <t>Date d'arrivée en pension pour ce séjour, au format JJ/MM/AAAA HH:MM</t>
+  </si>
+  <si>
+    <t>Date de départ de pension pour ce séjour, au format JJ/MM/AAAA HH:MM</t>
+  </si>
+  <si>
+    <t>Nombre de cages fournies par le propriétaire</t>
+  </si>
+  <si>
+    <t>Nombre de cage à fournir par la pension</t>
+  </si>
+  <si>
+    <t>Montant total du séjour en pension</t>
+  </si>
+  <si>
+    <t>Montant restant à payer pour ce séjour</t>
+  </si>
+  <si>
+    <t>Animaux du séjour avec exactement le même nom que dans l'import des animaux, séparés par une virgule s'il y en a plusieurs. Si possible mettre en évidence les animaux qui pourraient poser problème à cause de doublons</t>
+  </si>
+  <si>
+    <t>Prénom propriétaire</t>
+  </si>
+  <si>
+    <t>nom proprietaire</t>
+  </si>
+  <si>
+    <t>Prénom du propriétaire</t>
+  </si>
+  <si>
+    <t>Nom du propriétaire</t>
+  </si>
+  <si>
+    <t>L'animal devra-t-il/aura-t-il été vacciné par la pension pendant son séjour? OUI ou NON</t>
+  </si>
+  <si>
+    <t>Un des animaux necessite t'il des soins particuliers pendant le séjour? OUI ou NON</t>
+  </si>
+  <si>
+    <t>Les soins particuliers de l'animal se font-ils par injection? OUI ou NON</t>
+  </si>
+  <si>
+    <t>Commentaire éventuel sur le séjour.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +138,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +160,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,16 +182,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,20 +500,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,61 +549,109 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>44008.416666666664</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44022.416666666664</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>122.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="2">
-        <v>44008.416666666664</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44022.416666666664</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>122.5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>